--- a/bqdash/sample_data/port_sample_data.xlsx
+++ b/bqdash/sample_data/port_sample_data.xlsx
@@ -9831,10 +9831,10 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Fund (%)</t>
-  </si>
-  <si>
-    <t>Index (%)</t>
+    <t>Index Weight</t>
+  </si>
+  <si>
+    <t>Portfolio Weight</t>
   </si>
 </sst>
 </file>
@@ -10644,10 +10644,14 @@
   <dimension ref="A1:I1602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10672,10 +10676,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="I1" t="s">
         <v>3270</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3271</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
